--- a/outputs-HGR-r202-archive/g__Blautia.xlsx
+++ b/outputs-HGR-r202-archive/g__Blautia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,50 +524,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12458.fa</t>
+          <t>even_MAG-GUT26365.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002316070852232639</v>
+        <v>0.0006924441539039639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04115600926487967</v>
+        <v>0.01332245215277583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002127158156337249</v>
+        <v>0.001517771225069647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001337880792517718</v>
+        <v>0.001496322354317269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004702207874421242</v>
+        <v>0.002837180165402152</v>
       </c>
       <c r="G2" t="n">
-        <v>8.02392110663351e-07</v>
+        <v>7.287450308288265e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02175604630906432</v>
+        <v>0.01598486329101214</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00176552487498162</v>
+        <v>0.000866577384890371</v>
       </c>
       <c r="J2" t="n">
-        <v>1.365002045191198e-05</v>
+        <v>5.24198682733759e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03791587980612939</v>
+        <v>0.02551375652550381</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001814882728810994</v>
+        <v>0.001165867791842309</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003008620423815048</v>
+        <v>0.00410968133774967</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8820852665042476</v>
+        <v>0.9324805541803971</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8820852665042476</v>
+        <v>0.9324805541803971</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -583,50 +583,50 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20500.fa</t>
+          <t>even_MAG-GUT57924.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0002441152822768986</v>
+        <v>0.0003019339937406303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006645705492323126</v>
+        <v>0.01244849568944718</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003048121937183649</v>
+        <v>0.001687248125297414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000749763562552558</v>
+        <v>0.008125418816907022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01124708447778184</v>
+        <v>0.001878148491250995</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978211408900324e-05</v>
+        <v>2.60545454858449e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01931324551372514</v>
+        <v>0.008827113821933116</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008399169134515968</v>
+        <v>0.002807991869435485</v>
       </c>
       <c r="J3" t="n">
-        <v>5.09536996636014e-06</v>
+        <v>3.481436921916412e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00576301850721556</v>
+        <v>0.009669055510208541</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00090552256553392</v>
+        <v>0.001620776904839763</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04580669031239384</v>
+        <v>0.01975380895082309</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8978526857304421</v>
+        <v>0.9328504718437091</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8978526857304421</v>
+        <v>0.9328504718437091</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -634,124 +634,6 @@
         </is>
       </c>
       <c r="Q3" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT26365.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0006924441539039639</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01332245215277583</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.001517771225069647</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001496322354317269</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002837180165402152</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.287450308288265e-06</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01598486329101214</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.000866577384890371</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.24198682733759e-06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.02551375652550381</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.001165867791842309</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.00410968133774967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9324805541803971</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.9324805541803971</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT57924.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0003019339937406303</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01244849568944718</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.001687248125297414</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.008125418816907022</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.001878148491250995</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.60545454858449e-05</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.008827113821933116</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.002807991869435485</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.481436921916412e-06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.009669055510208541</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.001620776904839763</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.01975380895082309</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.9328504718437091</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.9328504718437091</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>s__Blautia stercoris</t>
         </is>
